--- a/health_web/health_pc/src/main/resources/static/template/report_business.xlsx
+++ b/health_web/health_pc/src/main/resources/static/template/report_business.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="44">
   <si>
     <t>运营数据统计</t>
   </si>
@@ -119,6 +119,33 @@
   </si>
   <si>
     <t>1.59%</t>
+  </si>
+  <si>
+    <t>2021-01-23</t>
+  </si>
+  <si>
+    <t>47.24%</t>
+  </si>
+  <si>
+    <t>31.50%</t>
+  </si>
+  <si>
+    <t>粉红套餐系列1</t>
+  </si>
+  <si>
+    <t>7.09%</t>
+  </si>
+  <si>
+    <t>我可以没有</t>
+  </si>
+  <si>
+    <t>流金岁月</t>
+  </si>
+  <si>
+    <t>4.72%</t>
+  </si>
+  <si>
+    <t>健康很好</t>
   </si>
 </sst>
 </file>
@@ -1179,7 +1206,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="8" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="O2" s="8"/>
     </row>
@@ -1210,7 +1237,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="5" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -1220,7 +1247,7 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5" t="n">
-        <v>510.0</v>
+        <v>8622.0</v>
       </c>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
@@ -1234,7 +1261,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H5" s="5">
         <v>510</v>
@@ -1246,7 +1273,7 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5" t="n">
-        <v>6.0</v>
+        <v>146.0</v>
       </c>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
@@ -1278,7 +1305,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="6" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -1302,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="H8" s="6">
         <v>0</v>
@@ -1328,7 +1355,7 @@
         <v>7</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="H9" s="6">
         <v>2</v>
@@ -1393,22 +1420,22 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="5" t="n">
-        <v>114.0</v>
+        <v>60.0</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
@@ -1417,7 +1444,7 @@
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>18</v>
@@ -1426,21 +1453,21 @@
         <v>114</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>5.0</v>
+        <v>40.0</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>19</v>
       </c>
       <c r="L13" s="5"/>
       <c r="M13" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N13" s="5" t="s">
         <v>20</v>
@@ -1451,7 +1478,7 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="4" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>21</v>
@@ -1460,21 +1487,21 @@
         <v>2</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>22</v>
       </c>
       <c r="L14" s="5"/>
       <c r="M14" s="5" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="N14" s="5" t="s">
         <v>23</v>
@@ -1485,7 +1512,7 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="4" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>24</v>
@@ -1494,21 +1521,21 @@
         <v>2</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="L15" s="5"/>
       <c r="M15" s="5" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="N15" s="5" t="s">
         <v>25</v>
